--- a/classification/classification result.xlsx
+++ b/classification/classification result.xlsx
@@ -301,10 +301,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Kappa Statistic</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>DBLP</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>数据集分类卡巴统计图</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -819,11 +834,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="293877904"/>
-        <c:axId val="293880144"/>
+        <c:axId val="160728272"/>
+        <c:axId val="160728832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="293877904"/>
+        <c:axId val="160728272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,7 +881,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293880144"/>
+        <c:crossAx val="160728832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -874,7 +889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="293880144"/>
+        <c:axId val="160728832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,7 +940,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293877904"/>
+        <c:crossAx val="160728272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1046,7 +1061,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1225,11 +1239,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="181449824"/>
-        <c:axId val="181450384"/>
+        <c:axId val="202316416"/>
+        <c:axId val="202316976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181449824"/>
+        <c:axId val="202316416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,7 +1286,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181450384"/>
+        <c:crossAx val="202316976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1280,7 +1294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181450384"/>
+        <c:axId val="202316976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,7 +1345,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181449824"/>
+        <c:crossAx val="202316416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1345,7 +1359,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1452,7 +1465,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1631,11 +1643,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="181453744"/>
-        <c:axId val="181454304"/>
+        <c:axId val="202954000"/>
+        <c:axId val="202954560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181453744"/>
+        <c:axId val="202954000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1678,7 +1690,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181454304"/>
+        <c:crossAx val="202954560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1686,7 +1698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181454304"/>
+        <c:axId val="202954560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1737,7 +1749,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181453744"/>
+        <c:crossAx val="202954000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1751,7 +1763,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1852,10 +1863,41 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>DBLP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>数据集</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
               <a:t>F-Score</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>图</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2370,11 +2412,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="301172928"/>
-        <c:axId val="301171808"/>
+        <c:axId val="201399216"/>
+        <c:axId val="201399776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="301172928"/>
+        <c:axId val="201399216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2417,7 +2459,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301171808"/>
+        <c:crossAx val="201399776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2425,7 +2467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301171808"/>
+        <c:axId val="201399776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2476,7 +2518,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301172928"/>
+        <c:crossAx val="201399216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2776,11 +2818,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="180242784"/>
-        <c:axId val="180243344"/>
+        <c:axId val="201785776"/>
+        <c:axId val="201786336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="180242784"/>
+        <c:axId val="201785776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2823,7 +2865,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180243344"/>
+        <c:crossAx val="201786336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2831,7 +2873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180243344"/>
+        <c:axId val="201786336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2882,7 +2924,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180242784"/>
+        <c:crossAx val="201785776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3117,8 +3159,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="184798048"/>
-        <c:axId val="184798608"/>
+        <c:axId val="201789696"/>
+        <c:axId val="201790256"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -3211,7 +3253,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184798048"/>
+        <c:axId val="201789696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3254,7 +3296,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184798608"/>
+        <c:crossAx val="201790256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3262,7 +3304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184798608"/>
+        <c:axId val="201790256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3313,7 +3355,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184798048"/>
+        <c:crossAx val="201789696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3548,8 +3590,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="289842512"/>
-        <c:axId val="289844192"/>
+        <c:axId val="202658064"/>
+        <c:axId val="202658624"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -3642,7 +3684,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="289842512"/>
+        <c:axId val="202658064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3685,7 +3727,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289844192"/>
+        <c:crossAx val="202658624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3693,7 +3735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="289844192"/>
+        <c:axId val="202658624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3744,7 +3786,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289842512"/>
+        <c:crossAx val="202658064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3865,7 +3907,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4044,11 +4085,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="180246704"/>
-        <c:axId val="180247264"/>
+        <c:axId val="202661984"/>
+        <c:axId val="202662544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="180246704"/>
+        <c:axId val="202661984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4091,7 +4132,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180247264"/>
+        <c:crossAx val="202662544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4099,7 +4140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180247264"/>
+        <c:axId val="202662544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4150,7 +4191,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180246704"/>
+        <c:crossAx val="202661984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4164,7 +4205,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4271,7 +4311,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4450,11 +4489,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="181160720"/>
-        <c:axId val="181161280"/>
+        <c:axId val="202459376"/>
+        <c:axId val="202459936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181160720"/>
+        <c:axId val="202459376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4497,7 +4536,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181161280"/>
+        <c:crossAx val="202459936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4505,7 +4544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181161280"/>
+        <c:axId val="202459936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4556,7 +4595,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181160720"/>
+        <c:crossAx val="202459376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4570,7 +4609,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4677,7 +4715,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4856,11 +4893,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="181070784"/>
-        <c:axId val="181071344"/>
+        <c:axId val="202463296"/>
+        <c:axId val="202463856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181070784"/>
+        <c:axId val="202463296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4903,7 +4940,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181071344"/>
+        <c:crossAx val="202463856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4911,7 +4948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181071344"/>
+        <c:axId val="202463856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4962,7 +4999,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181070784"/>
+        <c:crossAx val="202463296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4976,7 +5013,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5083,7 +5119,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5262,11 +5297,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="181074704"/>
-        <c:axId val="181075264"/>
+        <c:axId val="202312496"/>
+        <c:axId val="202313056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181074704"/>
+        <c:axId val="202312496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5309,7 +5344,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181075264"/>
+        <c:crossAx val="202313056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5317,7 +5352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181075264"/>
+        <c:axId val="202313056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5368,7 +5403,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181074704"/>
+        <c:crossAx val="202312496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5382,7 +5417,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12081,8 +12115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12845,15 +12879,11 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="I2:J2"/>
@@ -12870,11 +12900,15 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13860,6 +13894,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A66:C66"/>
@@ -13876,32 +13936,6 @@
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A63:C63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14887,16 +14921,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
@@ -14913,22 +14953,16 @@
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15913,16 +15947,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
@@ -15939,22 +15979,16 @@
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16940,16 +16974,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
@@ -16966,22 +17006,16 @@
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17966,16 +18000,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
@@ -17992,22 +18032,16 @@
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18992,16 +19026,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
@@ -19018,22 +19058,16 @@
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20018,16 +20052,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
@@ -20044,22 +20084,16 @@
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
